--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -1038,7 +1038,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>100000</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
